--- a/www/shop/recipientExcel_new.xlsx
+++ b/www/shop/recipientExcel_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa\Desktop\일괄등록파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6001C1F-AA8C-4273-874D-A9616DD9504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE428FA6-5D18-4737-98DB-6B6C1BDAAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3480" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="4300" windowWidth="28800" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
-  <si>
-    <t>수급자명</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수급자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,173 +63,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장기요양인정번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인정등급
+    <t>보호자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공인(1. 수급자 / 2. 보호자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령방법 (1. 방문 / 2. 유선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기요양급여 제공기록지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시 수급자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC아파트 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일 (ex.19800101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-0000-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]수급자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]생년월일 (ex.19400101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]성별(1.남/2.여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]일반전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]장기요양인정번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]인정등급
 (1. 1등급/2. 2등급/3. 3등급/4. 4등급/5. 5등급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인부담금율
+    <t>[필수]본인부담금율
 (1. 일반15% / 2. 감경9% / 3. 감경6% / 4. 의료6% / 5. 기초 0%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효기간 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수급자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반전화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공인(1. 수급자 / 2. 보호자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령방법 (1. 방문 / 2. 유선)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장기요양급여 제공기록지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별(1.남/2.여)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 수급자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC아파트 123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용기간 기준일 (ex. 01-01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일 (ex.19800101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일 (ex.19400101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc@abc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
+    <t>[필수]유효기간 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]유효기간 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]적용기간 기준일 (ex. 01-01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>주민번호앞자리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(기초 0%만 입력)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>주민번호뒷자리</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,13 +292,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,7 +398,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,256 +699,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.08203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
     <col min="12" max="12" width="43.83203125" customWidth="1"/>
     <col min="13" max="13" width="59.5" customWidth="1"/>
     <col min="14" max="14" width="20.08203125" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="25.25" customWidth="1"/>
+    <col min="15" max="15" width="30.25" customWidth="1"/>
+    <col min="16" max="16" width="30.83203125" customWidth="1"/>
     <col min="17" max="17" width="13.25" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="18" max="18" width="22.4140625" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
     <col min="21" max="21" width="20.25" customWidth="1"/>
     <col min="22" max="22" width="24.08203125" customWidth="1"/>
     <col min="23" max="23" width="14.58203125" customWidth="1"/>
-    <col min="24" max="25" width="20.83203125" customWidth="1"/>
-    <col min="26" max="26" width="32" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="30.9140625" customWidth="1"/>
     <col min="27" max="27" width="29.75" customWidth="1"/>
     <col min="28" max="28" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="8"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="AA2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>800101</v>
       </c>
       <c r="C3" s="1">
-        <v>1011111</v>
+        <v>19400101</v>
       </c>
       <c r="D3" s="1">
-        <v>19400101</v>
-      </c>
-      <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
         <v>12345</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
-        <v>5</v>
+      <c r="M3" s="4">
+        <v>44197</v>
       </c>
       <c r="N3" s="4">
-        <v>44197</v>
-      </c>
-      <c r="O3" s="4">
         <v>44561</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
+      <c r="O3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="1">
+        <v>22</v>
+      </c>
+      <c r="R3" s="1">
         <v>19800101</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T3" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="1">
+        <v>26</v>
+      </c>
+      <c r="V3" s="1">
         <v>12345</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="X3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>38</v>
+      <c r="AA3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/www/shop/recipientExcel_new.xlsx
+++ b/www/shop/recipientExcel_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE428FA6-5D18-4737-98DB-6B6C1BDAAB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11089B9-1009-4942-9805-B58C06563339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="4300" windowWidth="28800" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>우편번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제공인(1. 수급자 / 2. 보호자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수령방법 (1. 방문 / 2. 유선)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특이사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일 (ex.19800101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abc@abc.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,14 +128,6 @@
   </si>
   <si>
     <t>[필수]수급자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[필수]생년월일 (ex.19400101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[필수]성별(1.남/2.여)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,18 +162,6 @@
   <si>
     <t>[필수]본인부담금율
 (1. 일반15% / 2. 감경9% / 3. 감경6% / 4. 의료6% / 5. 기초 0%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[필수]유효기간 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[필수]유효기간 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[필수]적용기간 기준일 (ex. 01-01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,12 +183,60 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[필수]생년월일
+(ex.19400101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]성별
+(1.남/2.여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]적용기간 기준일
+(ex. 01-01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일
+(ex.19800101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공인
+(1. 수급자 / 2. 보호자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령방법
+(1. 방문 / 2. 유선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]유효기간 시작일
+(ex. 20210101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[필수]유효기간 종료일 
+(ex. 20211231)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20211231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,45 +395,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,163 +714,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="30.08203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" customWidth="1"/>
-    <col min="13" max="13" width="59.5" customWidth="1"/>
-    <col min="14" max="14" width="20.08203125" customWidth="1"/>
-    <col min="15" max="15" width="30.25" customWidth="1"/>
-    <col min="16" max="16" width="30.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.25" customWidth="1"/>
-    <col min="18" max="18" width="22.4140625" customWidth="1"/>
-    <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="20.25" customWidth="1"/>
-    <col min="22" max="22" width="24.08203125" customWidth="1"/>
-    <col min="23" max="23" width="14.58203125" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="30.9140625" customWidth="1"/>
-    <col min="27" max="27" width="29.75" customWidth="1"/>
-    <col min="28" max="28" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="29.5" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="10" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="54">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>800101</v>
@@ -869,22 +878,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>12345</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -892,41 +901,41 @@
       <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="M3" s="4">
-        <v>44197</v>
-      </c>
-      <c r="N3" s="4">
-        <v>44561</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="R3" s="1">
         <v>19800101</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V3" s="1">
         <v>12345</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -935,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
